--- a/15-芒果TV/02-视频推荐/results.xlsx
+++ b/15-芒果TV/02-视频推荐/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12360"/>
+    <workbookView windowWidth="28800" windowHeight="12260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>日期</t>
   </si>
@@ -188,10 +188,28 @@
     <t>同上, 加了cid被点击, 曝光的特征</t>
   </si>
   <si>
+    <t>01-part</t>
+  </si>
+  <si>
+    <t>xgb, 召回, 特征同baseline21</t>
+  </si>
+  <si>
     <t>xgb_20210712_1.csv</t>
   </si>
   <si>
     <t>xgb_20210712_2.csv</t>
+  </si>
+  <si>
+    <t>lgb, 召回, 特征同baseline21</t>
+  </si>
+  <si>
+    <t>02-part</t>
+  </si>
+  <si>
+    <t>lgb, 召回同baseline21, 特征加了点击次数, 曝光次数, 点击率</t>
+  </si>
+  <si>
+    <t>lgb_20210713_1.csv</t>
   </si>
   <si>
     <t>click</t>
@@ -205,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -247,6 +265,29 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -257,6 +298,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -265,51 +382,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,45 +391,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,22 +410,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -408,187 +426,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,6 +617,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -614,33 +647,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -678,24 +694,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,148 +722,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1193,10 +1211,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18"/>
@@ -1989,7 +2009,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="4:10">
+    <row r="45" spans="2:10">
+      <c r="B45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D45" s="4" t="s">
         <v>8</v>
       </c>
@@ -2009,10 +2035,13 @@
         <v>0.185</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="4:10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="C46" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D46" s="4" t="s">
         <v>13</v>
       </c>
@@ -2022,11 +2051,54 @@
       <c r="F46" s="4">
         <v>0.01912</v>
       </c>
+      <c r="G46" s="4">
+        <v>0.01783</v>
+      </c>
       <c r="H46" s="4">
         <v>0.216593088555108</v>
       </c>
+      <c r="I46" s="4">
+        <v>0.1917</v>
+      </c>
       <c r="J46" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="2:10">
+      <c r="B49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.0177678</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.0189967</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.017112</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0.228808926867684</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.2013</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2056,10 +2128,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/15-芒果TV/02-视频推荐/results.xlsx
+++ b/15-芒果TV/02-视频推荐/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12040"/>
+    <workbookView windowWidth="28800" windowHeight="12020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1321,7 +1321,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18"/>
